--- a/import excel/students.xlsx
+++ b/import excel/students.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LORAINE\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\attendance\import excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981D1848-D39D-402D-9F0A-C73823B0E162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB407078-36EE-4960-9468-EB9C7A4E7B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{7387D0B3-E557-4008-AA6F-22508E87851D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="99">
   <si>
     <t>lrn</t>
   </si>
@@ -96,9 +96,6 @@
     <t>555-1234</t>
   </si>
   <si>
-    <t>no-icon.png</t>
-  </si>
-  <si>
     <t>Emma</t>
   </si>
   <si>
@@ -270,15 +267,9 @@
     <t>555-8901</t>
   </si>
   <si>
-    <t>icon.png</t>
-  </si>
-  <si>
     <t>qr_code</t>
   </si>
   <si>
-    <t>qr-code.png</t>
-  </si>
-  <si>
     <t>middle_name</t>
   </si>
   <si>
@@ -310,6 +301,36 @@
   </si>
   <si>
     <t>Reyes</t>
+  </si>
+  <si>
+    <t>profilePhoto2.png</t>
+  </si>
+  <si>
+    <t>profilePhoto1.png</t>
+  </si>
+  <si>
+    <t>profilePhoto4.png</t>
+  </si>
+  <si>
+    <t>profilePhoto21.png</t>
+  </si>
+  <si>
+    <t>profilePhoto20.png</t>
+  </si>
+  <si>
+    <t>profilePhoto19.png</t>
+  </si>
+  <si>
+    <t>profilePhoto16.png</t>
+  </si>
+  <si>
+    <t>profilePhoto12.png</t>
+  </si>
+  <si>
+    <t>profilePhoto18.png</t>
+  </si>
+  <si>
+    <t>profilePhoto3.png</t>
   </si>
 </sst>
 </file>
@@ -317,7 +338,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -354,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -673,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414DE78B-35BF-4413-B10D-350CDEF883F8}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,8 +709,9 @@
     <col min="8" max="8" width="14.5546875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="18.6640625" customWidth="1"/>
-    <col min="11" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="25.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.21875" customWidth="1"/>
+    <col min="13" max="13" width="18.77734375" customWidth="1"/>
     <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -704,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -731,7 +753,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>11</v>
@@ -748,7 +770,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -772,11 +794,9 @@
         <v>19</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="M2" s="2"/>
       <c r="N2" s="3">
         <v>45870</v>
       </c>
@@ -787,41 +807,39 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="G3" s="3">
         <v>38920</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="M3" s="2"/>
       <c r="N3" s="3">
         <v>45870</v>
       </c>
@@ -832,16 +850,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>15</v>
@@ -850,23 +868,21 @@
         <v>38301</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="M4" s="2"/>
       <c r="N4" s="3">
         <v>45871</v>
       </c>
@@ -877,19 +893,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3">
         <v>38600</v>
@@ -898,20 +914,18 @@
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="3">
         <v>45871</v>
       </c>
@@ -922,16 +936,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>15</v>
@@ -940,23 +954,21 @@
         <v>38747</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="M6" s="2"/>
       <c r="N6" s="3">
         <v>45872</v>
       </c>
@@ -967,41 +979,39 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="3">
         <v>38119</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="3">
         <v>45872</v>
       </c>
@@ -1012,16 +1022,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>15</v>
@@ -1033,20 +1043,18 @@
         <v>16</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="M8" s="2"/>
       <c r="N8" s="3">
         <v>45873</v>
       </c>
@@ -1057,41 +1065,39 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="3">
         <v>38832</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="3">
         <v>45873</v>
       </c>
@@ -1102,16 +1108,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>15</v>
@@ -1120,23 +1126,21 @@
         <v>38208</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="3">
         <v>45874</v>
       </c>
@@ -1147,19 +1151,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="3">
         <v>38520</v>
@@ -1168,20 +1172,18 @@
         <v>16</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="L11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="3">
         <v>45874</v>
       </c>

--- a/import excel/students.xlsx
+++ b/import excel/students.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\attendance\import excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LORAINE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB407078-36EE-4960-9468-EB9C7A4E7B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FAE29E-ADE1-41FC-83C9-90BCAB2A30A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{7387D0B3-E557-4008-AA6F-22508E87851D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
   <si>
     <t>lrn</t>
   </si>
@@ -84,18 +84,12 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Grade 10</t>
-  </si>
-  <si>
     <t>123 Main St</t>
   </si>
   <si>
     <t>Jane Doe</t>
   </si>
   <si>
-    <t>555-1234</t>
-  </si>
-  <si>
     <t>Emma</t>
   </si>
   <si>
@@ -108,18 +102,12 @@
     <t>Female</t>
   </si>
   <si>
-    <t>Grade 9</t>
-  </si>
-  <si>
     <t>456 Oak Ave</t>
   </si>
   <si>
     <t>Tom Smith</t>
   </si>
   <si>
-    <t>555-5678</t>
-  </si>
-  <si>
     <t>Michael</t>
   </si>
   <si>
@@ -138,9 +126,6 @@
     <t>Susan Lee</t>
   </si>
   <si>
-    <t>555-9012</t>
-  </si>
-  <si>
     <t>Sophia</t>
   </si>
   <si>
@@ -156,9 +141,6 @@
     <t>David Chen</t>
   </si>
   <si>
-    <t>555-3456</t>
-  </si>
-  <si>
     <t>James</t>
   </si>
   <si>
@@ -174,9 +156,6 @@
     <t>Lisa Brown</t>
   </si>
   <si>
-    <t>555-7890</t>
-  </si>
-  <si>
     <t>Olivia</t>
   </si>
   <si>
@@ -192,9 +171,6 @@
     <t>Mike Wilson</t>
   </si>
   <si>
-    <t>555-2345</t>
-  </si>
-  <si>
     <t>William</t>
   </si>
   <si>
@@ -210,9 +186,6 @@
     <t>Emily Taylor</t>
   </si>
   <si>
-    <t>555-6789</t>
-  </si>
-  <si>
     <t>Ava</t>
   </si>
   <si>
@@ -228,9 +201,6 @@
     <t>Robert Johnson</t>
   </si>
   <si>
-    <t>555-0123</t>
-  </si>
-  <si>
     <t>Ethan</t>
   </si>
   <si>
@@ -246,9 +216,6 @@
     <t>Maria Martinez</t>
   </si>
   <si>
-    <t>555-4567</t>
-  </si>
-  <si>
     <t>Isabella</t>
   </si>
   <si>
@@ -264,9 +231,6 @@
     <t>Carlos Garcia</t>
   </si>
   <si>
-    <t>555-8901</t>
-  </si>
-  <si>
     <t>qr_code</t>
   </si>
   <si>
@@ -331,19 +295,29 @@
   </si>
   <si>
     <t>profilePhoto3.png</t>
+  </si>
+  <si>
+    <t>09123456789</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="169" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -369,13 +343,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -692,15 +672,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414DE78B-35BF-4413-B10D-350CDEF883F8}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="3" width="13.109375" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
@@ -709,9 +690,8 @@
     <col min="8" max="8" width="14.5546875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="18.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.21875" customWidth="1"/>
-    <col min="13" max="13" width="18.77734375" customWidth="1"/>
+    <col min="11" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="25.109375" customWidth="1"/>
     <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -726,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -753,15 +733,15 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
+      <c r="A2" s="5">
+        <v>593201847265</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -770,7 +750,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -782,19 +762,19 @@
         <v>38426</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
+      <c r="K2" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="3">
@@ -803,41 +783,41 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
+      <c r="A3" s="5">
+        <v>904728163059</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G3" s="3">
         <v>38920</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="3">
@@ -846,20 +826,20 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
+      <c r="A4" s="5">
+        <v>127463980521</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>15</v>
@@ -868,19 +848,19 @@
         <v>38301</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="3">
@@ -889,41 +869,41 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
+      <c r="A5" s="5">
+        <v>378209145376</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3">
         <v>38600</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="3">
@@ -932,20 +912,20 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
+      <c r="A6" s="5">
+        <v>641902738459</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>15</v>
@@ -954,19 +934,19 @@
         <v>38747</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="3">
@@ -975,41 +955,41 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
+      <c r="A7" s="5">
+        <v>850174932610</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="3">
         <v>38119</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="3">
@@ -1018,20 +998,20 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
+      <c r="A8" s="5">
+        <v>219847365098</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>15</v>
@@ -1040,19 +1020,19 @@
         <v>38704</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="3">
@@ -1061,41 +1041,41 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
+      <c r="A9" s="5">
+        <v>704193826574</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="3">
         <v>38832</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="3">
@@ -1104,20 +1084,20 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
+      <c r="A10" s="5">
+        <v>386517204963</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>15</v>
@@ -1126,19 +1106,19 @@
         <v>38208</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="3">
@@ -1147,41 +1127,41 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
+      <c r="A11" s="5">
+        <v>592841076213</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G11" s="3">
         <v>38520</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="3">
@@ -1190,6 +1170,7 @@
       <c r="O11" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/import excel/students.xlsx
+++ b/import excel/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LORAINE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FAE29E-ADE1-41FC-83C9-90BCAB2A30A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3477223-D7C9-4E3E-8F8D-BE4CAAE10338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{7387D0B3-E557-4008-AA6F-22508E87851D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="89">
   <si>
     <t>lrn</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>09123456789</t>
+  </si>
+  <si>
+    <t>127463980521.png</t>
   </si>
 </sst>
 </file>
@@ -306,7 +309,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="169" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -355,7 +358,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -675,8 +678,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,7 +693,8 @@
     <col min="8" max="8" width="14.5546875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="18.6640625" customWidth="1"/>
-    <col min="11" max="12" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.21875" customWidth="1"/>
     <col min="13" max="13" width="25.109375" customWidth="1"/>
     <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -778,7 +782,7 @@
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="3">
-        <v>45870</v>
+        <v>45871</v>
       </c>
       <c r="O2" s="1"/>
     </row>
@@ -862,7 +866,9 @@
       <c r="L4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="N4" s="3">
         <v>45871</v>
       </c>
